--- a/lms/src/main/webapp/WEB-INF/인터페이스 설계 e조 .xlsx
+++ b/lms/src/main/webapp/WEB-INF/인터페이스 설계 e조 .xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="479">
   <si>
     <t>인터페이스 설계서</t>
   </si>
@@ -68,16 +68,19 @@
     <t>[View or Redirect] JSP</t>
   </si>
   <si>
+    <t>/lms/loginForm.jsp [완료]</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>loginForm.jsp</t>
+  </si>
+  <si>
     <t>/lms/loginForm.jsp</t>
   </si>
   <si>
-    <t>★★★★★★★★★★★★</t>
-  </si>
-  <si>
-    <t>loginForm.jsp</t>
-  </si>
-  <si>
-    <t>/lms/loginAction.jsp</t>
+    <t>/lms/loginAction.jsp[완료]</t>
   </si>
   <si>
     <t>int id
@@ -137,13 +140,16 @@
 /lms/professor/main.jsp</t>
   </si>
   <si>
+    <t>/lms/findPwForm.jsp[완료]</t>
+  </si>
+  <si>
+    <t>findPwForm.jsp</t>
+  </si>
+  <si>
     <t>/lms/findPwForm.jsp</t>
   </si>
   <si>
-    <t>findPwForm.jsp</t>
-  </si>
-  <si>
-    <t>/lms/findPwAction.jsp</t>
+    <t>/lms/findPwAction.jsp[완료]</t>
   </si>
   <si>
     <t>int id
@@ -187,7 +193,7 @@
 ProfessorPwHistoryDAO#selectPw</t>
   </si>
   <si>
-    <t>String (pw)</t>
+    <t>HashMap&lt;String, object&gt;</t>
   </si>
   <si>
     <t>비밀번호 찾기 실패시-/lms/findPwForm.jsp
@@ -218,14 +224,17 @@
     <t>HashMap&lt;String, Object&gt;</t>
   </si>
   <si>
+    <t>/lms/admin/updateMyPageForm.jsp []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updateMyPageForm.jsp
+</t>
+  </si>
+  <si>
     <t>/lms/admin/updateMyPageForm.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">updateMyPageForm.jsp
-</t>
-  </si>
-  <si>
-    <t>/lms/admin/updateMyPageAction.jsp</t>
+    <t>/lms/admin/updateMyPageAction.jsp[]</t>
   </si>
   <si>
     <t>String email
@@ -263,17 +272,37 @@
 </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">int
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>(성공 1, 실패 0)</t>
+    </r>
+  </si>
+  <si>
     <t>정보수정시: /lms/admin/myPage.jsp
 정보수정 실패시: /lms/admin/updateMyPageForm.jsp</t>
   </si>
   <si>
+    <t>/lms/admin/updatePwForm.jsp [완료]</t>
+  </si>
+  <si>
+    <t>updatePwForm.jsp</t>
+  </si>
+  <si>
     <t>/lms/admin/updatePwForm.jsp</t>
   </si>
   <si>
-    <t>updatePwForm.jsp</t>
-  </si>
-  <si>
-    <t>/lms/admin/updatePwAction.jsp</t>
+    <t>/lms/admin/updatePwAction.jsp [완료]</t>
   </si>
   <si>
     <t>String newPw
@@ -302,7 +331,9 @@
 String oldPw</t>
   </si>
   <si>
-    <t>AdminPwHistoryDAO#insertPw</t>
+    <t>AdminPwHistoryDAO#selectOldPw
+AdminPwHistoryDAO#selectNewPw
+AdminPwHistoryDAO#insertPw</t>
   </si>
   <si>
     <r>
@@ -326,15 +357,44 @@
 비밀번호 수정 실패시-/lms/admin/updatePwForm.jsp </t>
   </si>
   <si>
+    <t>/lms/admin/admins/adminList.jsp [어느정도] - 마스터만 들어오게끔 해야함</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">adminList.jsp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>grade 검증(마스터만 가능)</t>
+    </r>
+  </si>
+  <si>
+    <t>AdminDAO#selectAdminList</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;HashMap&lt;String, Object&gt;&gt;</t>
+  </si>
+  <si>
     <t>/lms/admin/admins/adminList.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">adminList.jsp
+    <t>/lms/admin/admins/addAdminForm.jsp [완료]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">addAdminForm.jsp
 </t>
     </r>
     <r>
@@ -346,33 +406,10 @@
     </r>
   </si>
   <si>
-    <t>AdminDAO#selectAdminList</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;HashMap&lt;String, Object&gt;&gt;</t>
-  </si>
-  <si>
     <t>/lms/admin/admins/addAdminForm.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">addAdminForm.jsp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>grade 검증(마스터만 가능)</t>
-    </r>
-  </si>
-  <si>
-    <t>/lms/admin/admins/addAdminAction.jsp</t>
+    <t>/lms/admin/admins/addAdminAction.jsp [완료]</t>
   </si>
   <si>
     <t>int adminNo
@@ -436,7 +473,7 @@
 관리자 추가 실패시-/lms/admin/admins/addAdminForm.jsp+알림</t>
   </si>
   <si>
-    <t>/lms/admin/admins/deleteAdminAction.jsp</t>
+    <t xml:space="preserve">/lms/admin/admins/deleteAdminAction.jsp [완료] </t>
   </si>
   <si>
     <r>
@@ -494,7 +531,7 @@
     <t>관리자 삭제 성공시 -/lms/admin/admins/adminList.jsp</t>
   </si>
   <si>
-    <t>/lms/admin/students/studentList.jsp</t>
+    <t>/lms/admin/students/studentList.jsp [완료]</t>
   </si>
   <si>
     <t>int currentPage(default = "1")
@@ -521,19 +558,27 @@
     <t>z</t>
   </si>
   <si>
+    <t>/lms/admin/students/studentList.jsp</t>
+  </si>
+  <si>
+    <t>/lms/admin/students/addStudentForm.jsp [완료]</t>
+  </si>
+  <si>
+    <t>addStudentForm.jsp</t>
+  </si>
+  <si>
+    <t>DepartmentDAO#selectDepartmentList</t>
+  </si>
+  <si>
     <t>/lms/admin/students/addStudentForm.jsp</t>
   </si>
   <si>
-    <t>addStudentForm.jsp</t>
-  </si>
-  <si>
-    <t>/lms/admin/students/addStudentAction.jsp</t>
+    <t>/lms/admin/students/addStudentAction.jsp [완료]</t>
   </si>
   <si>
     <t>int studentNo
 String name 
-String department
-String pw</t>
+String department</t>
   </si>
   <si>
     <r>
@@ -555,8 +600,7 @@
   <si>
     <t>int studentNo
 String name
-String department
-String pw</t>
+String department</t>
   </si>
   <si>
     <t>StudentDAO#insertStudent</t>
@@ -583,19 +627,22 @@
 관리자/학생 추가 실페시-/lms/admin/students/addStudentForm.jsp+알림</t>
   </si>
   <si>
+    <t>/lms/admin/students/studentOne.jsp [완료]</t>
+  </si>
+  <si>
+    <t>int studentNo</t>
+  </si>
+  <si>
+    <t>studentOne.jsp</t>
+  </si>
+  <si>
+    <t>StudentDAO#selectStudent</t>
+  </si>
+  <si>
     <t>/lms/admin/students/studentOne.jsp</t>
   </si>
   <si>
-    <t>int studentNo</t>
-  </si>
-  <si>
-    <t>studentOne.jsp</t>
-  </si>
-  <si>
-    <t>StudentDAO#selectStudent</t>
-  </si>
-  <si>
-    <t>/lms/admin/students/updateStudentAction.jsp</t>
+    <t>/lms/admin/students/updateStudentAction.jsp [완료]</t>
   </si>
   <si>
     <t xml:space="preserve">int studentNo
@@ -661,7 +708,11 @@
     <t>professorList.jsp</t>
   </si>
   <si>
-    <t>(ProfessorsDAO#selectProfessorList)
+    <t>(ProfessorDAO#selectProfessorCount)
+int professorNo
+String department
+String name
+(ProfessorsDAO#selectProfessorList)
 int professorNo
 String department
 String name
@@ -689,8 +740,7 @@
     <t>int professorNo 
 String name
 String department
-int officeNo
-String pw</t>
+int officeNo</t>
   </si>
   <si>
     <r>
@@ -710,14 +760,17 @@
     </r>
   </si>
   <si>
-    <t>int professorNo 
+    <t>(ProfessorDAO#insertProfessor)
+int professorNo 
 String name
 String department
 int officeNo
-String Pw</t>
-  </si>
-  <si>
-    <t>ProfessorsDAO#insertProfessor</t>
+(ProfessorPwHistory#insertProfssorPw)
+int professorNo</t>
+  </si>
+  <si>
+    <t>ProfessorDAO#insertProfessor
+ProfessorPwHistory#insertProfssorPw</t>
   </si>
   <si>
     <r>
@@ -733,7 +786,16 @@
         <rFont val="Arial"/>
         <color rgb="FFEA4335"/>
       </rPr>
-      <t>(성공 1, 실패 0)</t>
+      <t xml:space="preserve">(성공 1, 실패 0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>int
+(성공 1, 실패 0)</t>
     </r>
   </si>
   <si>
@@ -809,16 +871,16 @@
 교수 정보 수정 실패-/lms/admin/professors/professorOne.jsp +알림</t>
   </si>
   <si>
+    <t>/lms/admin/department/departmentList.jsp[완료]</t>
+  </si>
+  <si>
+    <t>departmentList.jsp</t>
+  </si>
+  <si>
     <t>/lms/admin/department/departmentList.jsp</t>
   </si>
   <si>
-    <t>departmentList.jsp</t>
-  </si>
-  <si>
-    <t>DepartmentDAO#selectDepartmentList</t>
-  </si>
-  <si>
-    <t>/lms/admin/department/deleteDepartment.jsp</t>
+    <t>/lms/admin/department/deleteDepartment.jsp[완료]</t>
   </si>
   <si>
     <t>String department</t>
@@ -865,7 +927,7 @@
 학과 삭제 실패시-/lms/admin/department/departmentList.jsp + 알림 </t>
   </si>
   <si>
-    <t>/lms/admin/department/addDepartment.jsp</t>
+    <t>/lms/admin/department/addDepartment.jsp[완료]</t>
   </si>
   <si>
     <r>
@@ -909,7 +971,7 @@
 학과 추가 실패시-/lms/admin/department/departmentList.jsp + 알림</t>
   </si>
   <si>
-    <t>/lms/admin/subjects/sutbjectList.jsp</t>
+    <t>/lms/admin/subjects/subjectList.jsp [완료]</t>
   </si>
   <si>
     <t>int currentPage(default = "1")
@@ -933,13 +995,19 @@
 ArrayList&lt;HashMap&lt;String, Object&gt;&gt;</t>
   </si>
   <si>
+    <t>/lms/admin/subjects/sutbjectList.jsp</t>
+  </si>
+  <si>
+    <t>/lms/admin/subjects/addSubjectForm.jsp[완료]</t>
+  </si>
+  <si>
+    <t>addSubjectForm.jsp</t>
+  </si>
+  <si>
     <t>/lms/admin/subjects/addSubjectForm.jsp</t>
   </si>
   <si>
-    <t>addSubjectForm.jsp</t>
-  </si>
-  <si>
-    <t>/lms/admin/subjects/addSubjectAction.jsp</t>
+    <t>/lms/admin/subjects/addSubjectAction.jsp[완료]</t>
   </si>
   <si>
     <t>String subjectName
@@ -991,7 +1059,7 @@
 과목 추가 실패시-/lms/admin/subjects/addSubjectForm.jsp+알림 </t>
   </si>
   <si>
-    <t>/lms/admin/subjects/deleteSubjectAction.jsp</t>
+    <t>/lms/admin/subjects/deleteSubjectAction.jsp[완료]</t>
   </si>
   <si>
     <t>String subjectName</t>
@@ -1381,16 +1449,25 @@
 공지사항 상세정보 삭제 실패시-/lms/admin/notice/noticeOne.jsp+알림</t>
   </si>
   <si>
+    <t>/lms/student/main.jsp [완료]</t>
+  </si>
+  <si>
     <t>/lms/student/main.jsp</t>
   </si>
   <si>
+    <t>/lms/student/myPage.jsp [완료]</t>
+  </si>
+  <si>
     <t>/lms/student/myPage.jsp</t>
   </si>
   <si>
+    <t>/lms/student/updateMyPageForm.jsp [완료]</t>
+  </si>
+  <si>
     <t>/lms/student/updateMyPageForm.jsp</t>
   </si>
   <si>
-    <t>/lms/student/updateMyPageAction.jsp</t>
+    <t>/lms/student/updateMyPageAction.jsp [완료]</t>
   </si>
   <si>
     <r>
@@ -1422,10 +1499,13 @@
 학생 마이페이지 정보수정 실패시-/lms/student/updateMyPageForm.jsp+알림</t>
   </si>
   <si>
+    <t>/lms/student/updatePwForm.jsp [완료]</t>
+  </si>
+  <si>
     <t>/lms/student/updatePwForm.jsp</t>
   </si>
   <si>
-    <t>/lms/student/updatePwAction.jsp</t>
+    <t>/lms/student/updatePwAction.jsp [완료]</t>
   </si>
   <si>
     <r>
@@ -1474,74 +1554,102 @@
 비밀번호 변경 실패시: /lms/student/updatePwForm.jsp + 알림 </t>
   </si>
   <si>
+    <t>/lms/student/class/subjectList.jsp [완료]</t>
+  </si>
+  <si>
+    <t>subjectList.jsp</t>
+  </si>
+  <si>
     <t>/lms/student/class/subjectList.jsp</t>
   </si>
   <si>
-    <t>subjectList.jsp</t>
-  </si>
-  <si>
-    <t>/lms/sutdent/class/classList.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classList.jsp
-</t>
-  </si>
-  <si>
-    <t>(ClassOpenApplyDAO#classOpenApplyList)
+    <t>/lms/stutdent/class/classList.jsp [완료]</t>
+  </si>
+  <si>
+    <t>int currentPage(default = "1")
 int classApplyNo
 int professorNo
+String className
 String department
 String subjectName
 String days
 int periodStart</t>
   </si>
   <si>
-    <t>ClassOpenApplyDAO#selectClassOpenApplyCount
-ClassOpenApplyDAO#selectClassOpenApplyList</t>
-  </si>
-  <si>
-    <t>/lms/sutdent/class/myClassList.jsp</t>
-  </si>
-  <si>
-    <t>int classApplyNo
+    <t xml:space="preserve">classList.jsp
+</t>
+  </si>
+  <si>
+    <t>(ClassOpenApplyDAO#classOpenApplyList)
+int classApplyNo
 int professorNo
+String className
 String department
 String subjectName
 String days
 int periodStart</t>
   </si>
   <si>
-    <t>myClassList.jsp</t>
-  </si>
-  <si>
-    <t>int studentNo
-int classApplyNo
+    <t>ClassOpenApplyDAO#selectClassOpenApplyCount
+ClassOpenApplyDAO#selectClassOpenApplyList</t>
+  </si>
+  <si>
+    <t>/lms/sutdent/class/classList.jsp</t>
+  </si>
+  <si>
+    <t>/lms/student/class/myClassList.jsp [완료]</t>
+  </si>
+  <si>
+    <t>int classApplyNo
 int professorNo
+String className
 String department
 String subjectName
 String days
 int periodStart</t>
   </si>
   <si>
+    <t>myClassList.jsp</t>
+  </si>
+  <si>
+    <t>int studentNo
+int classApplyNo
+int professorNo
+String className
+String department
+String subjectName
+String days
+int periodStart</t>
+  </si>
+  <si>
     <t>MyclassDAO#selectMyClassList</t>
   </si>
   <si>
+    <t>/lms/sutdent/class/myClassList.jsp</t>
+  </si>
+  <si>
+    <t>/lms/sutdent/class/myClassOne.jsp [완료]</t>
+  </si>
+  <si>
+    <t>myClassOne.jsp</t>
+  </si>
+  <si>
+    <t>MyclassDAO#selectMyClass</t>
+  </si>
+  <si>
     <t>/lms/sutdent/class/myClassOne.jsp</t>
   </si>
   <si>
-    <t>myClassOne.jsp</t>
-  </si>
-  <si>
-    <t>MyclassDAO#selectMyClass</t>
+    <t>/lms/sutdent/class/schedule.jsp [진행중]</t>
+  </si>
+  <si>
+    <t>schedule.jsp</t>
+  </si>
+  <si>
+    <t>MyClassDAO#selectMyClassList</t>
   </si>
   <si>
     <t>/lms/sutdent/class/schedule.jsp</t>
-  </si>
-  <si>
-    <t>schedule.jsp</t>
-  </si>
-  <si>
-    <t>MyClassDAO#selectMyClassList</t>
   </si>
   <si>
     <t>/lms/student/grade/gradeList.jsp</t>
@@ -1602,11 +1710,15 @@
     <t xml:space="preserve">/lms/student/classBoard/myClassAssignmentList.jsp </t>
   </si>
   <si>
+    <t>int currentPage(default = "1")
+int classApplyNo</t>
+  </si>
+  <si>
     <t>myClassAssignmentList.jsp</t>
   </si>
   <si>
     <t>(StudentAssignmentDAO#selectStudentAssignmentList)
-int assignmentNo
+int classApplyNo
 int startRow
 int rowPerPage</t>
   </si>
@@ -1625,25 +1737,114 @@
     <t>myClassAssignmentOne.jsp</t>
   </si>
   <si>
+    <t>int assignmentNo
+int studentNo</t>
+  </si>
+  <si>
     <t>StudentAssignmentDAO#selectStudentAssignment</t>
   </si>
   <si>
     <t xml:space="preserve">/lms/student/classBoard/updateMyClassAssignmentForm.jsp </t>
+  </si>
+  <si>
+    <t>int assignmentNo</t>
   </si>
   <si>
     <t>/updateMyClassAssignmentForm.jsp 
 (과제 수정)</t>
   </si>
   <si>
+    <t>/lms/student/classBoard/updateMyClassAssignmentForm.jsp (과제 수정)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/lms/student/classBoard/updateMyClassAssignmentAction.jsp </t>
+  </si>
+  <si>
+    <t>int assignmentNo
+String title
+String content
+Part part(file)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">updateMyClassAssignmentAction.jsp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t>과제 변경(수정)</t>
+    </r>
+  </si>
+  <si>
+    <t>int assignmentNo
+int studentNo
+String title
+String content
+String saveName</t>
+  </si>
+  <si>
+    <t>StudentAssignmentDAO#updateStudentAssignment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">int
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t>(성공 1, 실패 0)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">과제 수정 성공시: /lms/student/classBoard/myClassAssignmentOne.jsp
+과제 수정 실패시: /lms/student/classBoard/updateMyClassAssignmentForm.jsp+알림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/lms/student/classBoard/subitMyClassAssignmentForm.jsp </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">subitMyClassAssignmentForm.jsp 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>(과제 제출)</t>
+    </r>
+  </si>
+  <si>
+    <t>/lms/student/classBoard/subitMyClassAssignmentForm.jsp (과제 제출)</t>
+  </si>
+  <si>
+    <t>/lms/student/classBoard/subitMyClassAssignmentAction.jsp</t>
+  </si>
+  <si>
     <t>int assignmentNo
 int classApplyNo
-int studentNo</t>
-  </si>
-  <si>
-    <t>/lms/student/classBoard/updateMyClassAssignmentForm.jsp (과제 수정)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/lms/student/classBoard/updateMyClassAssignmentAction.jsp </t>
+String title 
+String content
+Part part(file)</t>
   </si>
   <si>
     <r>
@@ -1651,7 +1852,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">updateMyClassAssignmentAction.jsp
+      <t xml:space="preserve">subitMyClassAssignmentAction.jsp
 </t>
     </r>
     <r>
@@ -1659,89 +1860,16 @@
         <rFont val="Arial"/>
         <color rgb="FFEA4335"/>
       </rPr>
-      <t>과제 변경(수정)</t>
-    </r>
-  </si>
-  <si>
-    <t>StudentAssignmentDAO#updateStudentAssignment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">int
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
-      </rPr>
-      <t>(성공 1, 실패 0)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">과제 수정 성공시: /lms/student/classBoard/myClassAssignmentOne.jsp
-과제 수정 실패시: /lms/student/classBoard/updateMyClassAssignmentForm.jsp+알림 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/lms/student/classBoard/subitMyClassAssignmentForm.jsp </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">subitMyClassAssignmentForm.jsp 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>(과제 제출)</t>
-    </r>
-  </si>
-  <si>
-    <t>/lms/student/classBoard/subitMyClassAssignmentForm.jsp (과제 제출)</t>
-  </si>
-  <si>
-    <t>/lms/student/classBoard/subitMyClassAssignmentAction.jsp</t>
+      <t>과제 제출(추가)</t>
+    </r>
   </si>
   <si>
     <t>int assignmentNo
-int classApplyNo
-*) String title 
-String content
-String state</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">subitMyClassAssignmentAction.jsp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
-      </rPr>
-      <t>과제 제출(추가)</t>
-    </r>
-  </si>
-  <si>
-    <t>int assignmentNo
+int studentNo
 int classApplyNo
 String title
 String content
-String state</t>
+String saveName</t>
   </si>
   <si>
     <t>StudentAssignmentDAO#insertStudentAssignment</t>
@@ -1781,7 +1909,18 @@
     <t>/lms/student/classBoard/attendanceList.jsp (출석 리스트)</t>
   </si>
   <si>
-    <t xml:space="preserve">/lms/student/classApply/classApplyList.jsp </t>
+    <t>/lms/student/classApply/classApplyList.jsp [완료]</t>
+  </si>
+  <si>
+    <t>int currentPage(default = "1")
+int classApplyNo
+int professorNo
+String className
+String subjectName
+String days
+int periodStart
+int year
+int semester</t>
   </si>
   <si>
     <t>classApplyList.jsp 
@@ -1791,10 +1930,12 @@
     <t>(ClassOpenApplyDAO#classOpenApplyList)
 int classApplyNo
 int professorNo
-String department
+String className
 String subjectName
 String days
 int periodStart
+int year
+int semester
 int startRow
 int rowPerPage</t>
   </si>
@@ -1802,65 +1943,77 @@
     <t>/lms/student/classApply/classApplyList.jsp (수강신청 가능한 강의 리스트)</t>
   </si>
   <si>
-    <t>/lms/student/classApply/addClassBasket.jsp</t>
+    <t>/lms/student/classApply/addClassBasketAction.jsp[완료]</t>
   </si>
   <si>
     <t>addClassBasket.jsp</t>
+  </si>
+  <si>
+    <t>(ClassBasketDAO#insertClassBasket)
+int classApplyNo
+int StudentNo
+(ClassBasketDAO#selectClassBasket)
+studentNo</t>
+  </si>
+  <si>
+    <t>ClassBasketDAO#insertClassBasket
+ClassBasketDAO#selectClassBasket</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">int
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFEA4335"/>
+      </rPr>
+      <t xml:space="preserve">(성공 1, 실패 0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>list</t>
+    </r>
+  </si>
+  <si>
+    <t>수강신청 장바구니 추가 성공:/lms/student/classApply/classBasket.jsp
+수강신청 장바구니 추가 실패:/lms/student/classApply/classApplyList.jsp</t>
+  </si>
+  <si>
+    <t>/lms/student/classApply/classBasketList.jsp[완료]</t>
+  </si>
+  <si>
+    <t>classBasketList.jsp</t>
+  </si>
+  <si>
+    <t>ClassBasketDAO#selectClassBasketList</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;HashMap&lt;String, Object&gt;&gt; ?</t>
+  </si>
+  <si>
+    <t>/lms/student/classApply/classBasket.jsp</t>
+  </si>
+  <si>
+    <t>/lms/student/classApply/deleteClassBasketAction.jsp[완료]</t>
+  </si>
+  <si>
+    <t>deleteClassBasket.jsp</t>
   </si>
   <si>
     <t>int classApplyNo
 int StudentNo</t>
   </si>
   <si>
-    <t>ClassBasketDAO#insertClassBasket</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">int
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FFEA4335"/>
-      </rPr>
-      <t>(성공 1, 실패 0)</t>
-    </r>
-  </si>
-  <si>
-    <t>수강신청 장바구니 추가 성공:/lms/student/classApply/classBasket.jsp
-수강신청 장바구니 추가 실패:/lms/student/classApply/classApplyList.jsp</t>
-  </si>
-  <si>
-    <t>/lms/student/classApply/classBasketList.jsp</t>
-  </si>
-  <si>
-    <t>classBasketList.jsp</t>
-  </si>
-  <si>
-    <t>ClassBasketDAO#selectClassBasketList</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;HashMap&lt;String, Object&gt;&gt; ?</t>
-  </si>
-  <si>
-    <t>/lms/student/classApply/classBasket.jsp</t>
-  </si>
-  <si>
-    <t>/lms/student/classApply/deleteClassBasket.jsp</t>
-  </si>
-  <si>
-    <t>deleteClassBasket.jsp</t>
-  </si>
-  <si>
-    <t>int classApplyNo
-int StudentNo</t>
-  </si>
-  <si>
     <t>ClassBasketDAO#deleteClassBasket</t>
   </si>
   <si>
@@ -1905,7 +2058,7 @@
     </r>
   </si>
   <si>
-    <t>ClassOpenApplyDAO#insertMyClass</t>
+    <t>MyClass#insertMyClass</t>
   </si>
   <si>
     <r>
@@ -1939,14 +2092,16 @@
     <t>int studentNo
 int classApplyNo
 int professorNo
- String department
+String className
  String subjectName 
 String days
- int periodStart</t>
-  </si>
-  <si>
-    <t>ClassOpenApplyDAO#selectMyClassCount
-ClassOpenApplyDAO#selectMyClassList</t>
+ int periodStart
+int year
+int semester</t>
+  </si>
+  <si>
+    <t>MyClass#selectMyClassCount
+MyClass#selectMyClassList</t>
   </si>
   <si>
     <t>/lms/student/classApply/myClassList.jsp (수강신청 된 강의 리스트)</t>
@@ -2135,8 +2290,32 @@
     <t xml:space="preserve">/lms/professor/class/classList.jsp </t>
   </si>
   <si>
+    <t>int currentPage(default = "1")
+int classApplyNo
+int professorNo
+String className
+String subjectName
+String days
+int periodStart
+int year
+int semester</t>
+  </si>
+  <si>
     <t>classList.jsp
 (개설 승인된 전체 강의 리스트)</t>
+  </si>
+  <si>
+    <t>(ClassOpenApplyDAO#selectClassOpenApplyCount)
+int classApplyNo
+int professorNo
+String className
+String subjectName
+String days
+int periodStart
+int year
+int semester
+int startRow
+int rowPerPage</t>
   </si>
   <si>
     <t>/lms/professor/class/classList.jsp (개설신청 리스트)</t>
@@ -2154,7 +2333,9 @@
     <t>String subjectName
 String className
 int periodStart
-String days</t>
+String days
+int year
+int semester</t>
   </si>
   <si>
     <r>
@@ -2174,10 +2355,13 @@
     </r>
   </si>
   <si>
-    <t>String subjectName
+    <t>int professorNo
+String subjectName
 String className
 int periodStart
-String days</t>
+String days
+int year
+int semester</t>
   </si>
   <si>
     <t>ClassOpenApplyDAO#insertClassOpenApply</t>
@@ -2224,6 +2408,10 @@
     </r>
   </si>
   <si>
+    <t>int classApplyNo
+int professorNo</t>
+  </si>
+  <si>
     <t>ClassOpenApplyDAO#deleteClassOpenApply</t>
   </si>
   <si>
@@ -2255,7 +2443,12 @@
 (개설 승인 O, 교수별 강의 리스트)</t>
   </si>
   <si>
-    <t>ClassOpenApplyDAO#selectClassOpenApplyListByState</t>
+    <t>int professorNo
+int year
+int semester</t>
+  </si>
+  <si>
+    <t>ClassOpenApplyDAO#selectClassOpenApplyList</t>
   </si>
   <si>
     <t>/lms/professor/class/myClassList.jsp (개설 승인 O, 교수별 강의 리스트)</t>
@@ -2264,17 +2457,39 @@
     <t>/lms/professor/class/classOpenApplyList.jsp</t>
   </si>
   <si>
+    <t>int currentPage(default = "1")
+int classApplyNo
+String className
+String subjectName
+String days
+int periodStart
+int year
+int semester</t>
+  </si>
+  <si>
+    <t>int classApplyNo
+int professorNo
+String className
+String subjectName
+String days
+int periodStart
+int year
+int semester</t>
+  </si>
+  <si>
+    <t>/lms/professor/notice/noticeList.jsp[완료]</t>
+  </si>
+  <si>
     <t>/lms/professor/notice/noticeList.jsp</t>
   </si>
   <si>
+    <t>/lms/professor/notice/noticeOne.jsp[완료]</t>
+  </si>
+  <si>
     <t>/lms/professor/notice/noticeOne.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">/lms/professor/classBoard/myClassBoardList.jsp </t>
-  </si>
-  <si>
-    <t>int classApplyNo
-int professorNo</t>
+    <t>/lms/professor/classBoard/myClassBoardList.jsp [완료]</t>
   </si>
   <si>
     <t>myClassBoardList.jsp
@@ -2306,9 +2521,6 @@
   </si>
   <si>
     <t>/lms/professor/classBoard/assignmentOne.jsp</t>
-  </si>
-  <si>
-    <t>int assignmentNo</t>
   </si>
   <si>
     <t>assignmentOne.jsp</t>
@@ -2628,6 +2840,9 @@
   </si>
   <si>
     <t>류현종</t>
+  </si>
+  <si>
+    <t>/lms/student/classApply/addClassBasket.jsp</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2884,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2680,6 +2895,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2696,36 +2917,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDD7E6B"/>
         <bgColor rgb="FFDD7E6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2741,61 +3006,124 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3018,7 +3346,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.63"/>
+    <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="2" width="55.25"/>
     <col customWidth="1" min="3" max="3" width="52.38"/>
     <col customWidth="1" min="4" max="4" width="40.88"/>
@@ -3094,608 +3422,611 @@
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>2.0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>3.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>4.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>5.0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" s="4">
         <v>6.0</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>7.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>37</v>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="107.25" customHeight="1">
       <c r="A11" s="4">
         <v>8.0</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>9.0</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>10.0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
+      <c r="B13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
         <v>11.0</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>53</v>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>12.0</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>13.0</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
+      <c r="B16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>14.0</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>69</v>
+      <c r="B17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
         <v>15.0</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>70</v>
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4">
         <v>16.0</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>76</v>
+      <c r="D19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>17.0</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>79</v>
+      <c r="B20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>18.0</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>85</v>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>19.0</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>95</v>
+      <c r="B22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>20.0</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>96</v>
+      <c r="B23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>21.0</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>102</v>
+      <c r="D24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>22.0</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>105</v>
+      <c r="B25" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>23.0</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>112</v>
+      <c r="B26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>24.0</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>116</v>
+      <c r="B27" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3703,77 +4034,77 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>26.0</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>126</v>
+      <c r="B29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>27.0</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>126</v>
+      <c r="B30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3781,103 +4112,103 @@
         <v>28.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>29.0</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>142</v>
+      <c r="D32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>30.0</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>145</v>
+      <c r="B33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>31.0</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>152</v>
+      <c r="B34" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35">
@@ -3885,129 +4216,129 @@
         <v>32.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>33.0</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>164</v>
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>34.0</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>169</v>
+      <c r="B37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>35.0</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>174</v>
+      <c r="B38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
         <v>36.0</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>164</v>
+      <c r="B39" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40">
@@ -4015,2471 +4346,2473 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>38.0</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>188</v>
+        <v>202</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>39.0</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>191</v>
+      <c r="B42" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
         <v>40.0</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>198</v>
+      <c r="B43" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>197</v>
+        <v>212</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>41.0</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>42.0</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>204</v>
+      <c r="B45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4">
         <v>43.0</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>198</v>
+      <c r="B46" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>214</v>
+      <c r="F46" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
         <v>44.0</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>215</v>
+      <c r="D47" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4">
         <v>45.0</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>216</v>
+        <v>35</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>46.0</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>217</v>
+        <v>40</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>47.0</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>221</v>
+      <c r="B50" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>48.0</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>222</v>
+        <v>49</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>49.0</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>47</v>
+      <c r="B52" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>228</v>
+        <v>241</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4">
         <v>50.0</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>137</v>
+      <c r="B53" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>148</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>229</v>
+        <v>247</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>51.0</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>169</v>
+      <c r="B54" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>250</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>231</v>
+        <v>251</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>52.0</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>236</v>
+      <c r="B55" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>235</v>
+        <v>257</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>53.0</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>164</v>
+      <c r="B56" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>240</v>
+        <v>262</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>54.0</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="12" t="s">
-        <v>243</v>
+        <v>266</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>55.0</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>247</v>
+      <c r="B58" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>246</v>
+        <v>271</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>56.0</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>184</v>
+      <c r="B59" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>250</v>
+        <v>198</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
         <v>57.0</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>253</v>
+      <c r="B60" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4">
         <v>58.0</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>259</v>
+      <c r="B61" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
         <v>59.0</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>164</v>
+      <c r="B62" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>260</v>
+        <v>284</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4">
         <v>60.0</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>263</v>
+      <c r="B63" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>61.0</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>267</v>
+      <c r="B64" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>62.0</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>271</v>
+      <c r="B65" s="36" t="s">
+        <v>296</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="5" t="s">
-        <v>274</v>
+        <v>297</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>63.0</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>279</v>
+      <c r="B66" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>64.0</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5" t="s">
-        <v>282</v>
+      <c r="D67" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>65.0</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>289</v>
+      <c r="B68" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>66.0</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>293</v>
+      <c r="D69" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>67.0</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" ht="40.5" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>303</v>
+      <c r="B70" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8"/>
+      <c r="B71" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>69.0</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>308</v>
+      <c r="D72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>70.0</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>314</v>
+      <c r="B73" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>71.0</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>164</v>
+      <c r="B74" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>319</v>
+        <v>344</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>72.0</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E75" s="6" t="s">
+      <c r="B75" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>324</v>
+      <c r="D75" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>73.0</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>329</v>
+      <c r="B76" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>74.0</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="5" t="s">
-        <v>330</v>
+      <c r="D77" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>75.0</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>331</v>
+      <c r="D78" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>76.0</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="6" t="s">
-        <v>333</v>
+      <c r="D79" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>77.0</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>341</v>
+      <c r="B80" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="81" ht="39.75" customHeight="1">
       <c r="A81" s="4">
         <v>78.0</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="6" t="s">
-        <v>342</v>
+      <c r="D81" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="82" ht="68.25" customHeight="1">
       <c r="A82" s="4">
         <v>79.0</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>348</v>
+      <c r="B82" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4">
         <v>80.0</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>351</v>
+      <c r="B83" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4">
         <v>81.0</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>354</v>
+      <c r="B84" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4">
         <v>82.0</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C85" s="6" t="s">
+      <c r="B85" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="D85" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="5" t="s">
-        <v>355</v>
+      <c r="G85" s="8"/>
+      <c r="H85" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4">
         <v>83.0</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>363</v>
+      <c r="B86" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4">
         <v>84.0</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>368</v>
+      <c r="B87" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4">
         <v>85.0</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>372</v>
+      <c r="B88" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4">
         <v>86.0</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>373</v>
+      <c r="B89" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4">
         <v>87.0</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>374</v>
+      <c r="B90" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4">
         <v>88.0</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>375</v>
+      <c r="B91" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4">
         <v>89.0</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>380</v>
+      <c r="B92" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4">
         <v>90.0</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>381</v>
+      <c r="B93" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4">
         <v>91.0</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>384</v>
+      <c r="B94" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4">
         <v>92.0</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>387</v>
+      <c r="B95" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4">
         <v>93.0</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="B96" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="D96" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6" t="s">
-        <v>391</v>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4">
         <v>94.0</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>398</v>
+      <c r="B97" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4">
         <v>95.0</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C98" s="6" t="s">
+      <c r="B98" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="5" t="s">
-        <v>399</v>
+      <c r="D98" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4">
         <v>96.0</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>407</v>
+      <c r="B99" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4">
         <v>97.0</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>412</v>
+      <c r="B100" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4">
         <v>98.0</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>413</v>
+      <c r="B101" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4">
         <v>99.0</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>417</v>
+      <c r="B102" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4">
         <v>100.0</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>428</v>
+      <c r="B103" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4">
         <v>101.0</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>430</v>
+      <c r="B104" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>429</v>
+        <v>271</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4">
         <v>102.0</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>439</v>
+      <c r="B105" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107">
-      <c r="B107" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="B107" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108">
-      <c r="B108" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="B108" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109">
-      <c r="B109" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="B109" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110">
-      <c r="B110" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
+      <c r="B110" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="24"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="24"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="24"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="24"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="24"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="24"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="24"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="24"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="24"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="24"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="24"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
-      <c r="B124" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="I124" s="7"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
